--- a/galaxy-sop-server/src/main/webapp/template/kpiGradeTemplate.xlsx
+++ b/galaxy-sop-server/src/main/webapp/template/kpiGradeTemplate.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25356" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="14055" windowHeight="3750"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$B$3</definedName>
     <definedName name="_GoBack" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -82,8 +83,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +147,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -353,9 +362,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -363,6 +369,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -421,6 +430,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -440,7 +517,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -716,65 +793,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="17.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.44140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="8.77734375" style="2" collapsed="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="17.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="8.75" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" ht="33" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" ht="22.9" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -786,7 +863,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="landscape" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -796,12 +873,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -815,12 +892,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/galaxy-sop-server/src/main/webapp/template/kpiGradeTemplate.xlsx
+++ b/galaxy-sop-server/src/main/webapp/template/kpiGradeTemplate.xlsx
@@ -16,7 +16,6 @@
     <definedName name="_GoBack" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -368,10 +367,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -430,74 +429,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -517,7 +448,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -799,8 +730,8 @@
   </sheetPr>
   <dimension ref="A2:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -816,24 +747,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="33" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="22.9" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">

--- a/galaxy-sop-server/src/main/webapp/template/kpiGradeTemplate.xlsx
+++ b/galaxy-sop-server/src/main/webapp/template/kpiGradeTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="14055" windowHeight="3750"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="16185" windowHeight="4155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <definedName name="_GoBack" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,10 +27,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>事业线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +73,10 @@
       </rPr>
       <t>导出时间：2016-9-5   统计时段：2016-09-18～2016-09-24</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事业部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,6 +430,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -448,7 +517,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -731,7 +800,7 @@
   <dimension ref="A2:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -748,42 +817,42 @@
   <sheetData>
     <row r="2" spans="1:8" ht="33" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="22.9" customHeight="1">
       <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/galaxy-sop-server/src/main/webapp/template/kpiGradeTemplate.xlsx
+++ b/galaxy-sop-server/src/main/webapp/template/kpiGradeTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="16185" windowHeight="4155"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="13950" windowHeight="4800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">                                    合伙人日常业务绩效评分表                    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">  </t>
     </r>
@@ -77,6 +73,10 @@
   </si>
   <si>
     <t>事业部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    合伙人绩效考核表                  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -800,7 +800,7 @@
   <dimension ref="A2:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -817,14 +817,14 @@
   <sheetData>
     <row r="2" spans="1:8" ht="33" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
